--- a/vitro/data/tg487/preprocess/tg487_raw.xlsx
+++ b/vitro/data/tg487/preprocess/tg487_raw.xlsx
@@ -14299,22 +14299,22 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>lymphocytes:</t>
+          <t>lymphocytes: human peripheral blood</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>without</t>
+          <t>with and without</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>cytotoxicity</t>
+          <t>no cytotoxicity</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -14322,11 +14322,7 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="I250" t="inlineStr">
-        <is>
-          <t>not applicable</t>
-        </is>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr">
         <is>
           <t>valid</t>
@@ -14353,22 +14349,22 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>lymphocytes: human peripheral blood</t>
+          <t>lymphocytes:</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>with and without</t>
+          <t>without</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>no cytotoxicity</t>
+          <t>cytotoxicity</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -14376,7 +14372,11 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="I251" t="inlineStr"/>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
+      </c>
       <c r="J251" t="inlineStr">
         <is>
           <t>valid</t>
@@ -31871,7 +31871,7 @@
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>ambiguous</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="G573" t="inlineStr">
@@ -31929,7 +31929,7 @@
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>ambiguous</t>
         </is>
       </c>
       <c r="G574" t="inlineStr">
@@ -37903,7 +37903,7 @@
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>Chinese hamster lung fibroblasts (V79)</t>
+          <t>primary culture, other: blood cells collected from healthy, young volunteers</t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
@@ -37929,12 +37929,12 @@
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr">
         <is>
-          <t>not examined</t>
+          <t>other: no, but clearly positive results</t>
         </is>
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>(relative cloning efficiency significantly decreased at ≥ 3.75 µg/mL)</t>
+          <t>(at &gt;=300 µM (3 µg/mL))</t>
         </is>
       </c>
       <c r="L682" t="inlineStr"/>
@@ -37957,7 +37957,7 @@
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t>primary culture, other: blood cells collected from healthy, young volunteers</t>
+          <t>Chinese hamster lung fibroblasts (V79)</t>
         </is>
       </c>
       <c r="E683" t="inlineStr">
@@ -37983,12 +37983,12 @@
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr">
         <is>
-          <t>other: no, but clearly positive results</t>
+          <t>not examined</t>
         </is>
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>(at &gt;=300 µM (3 µg/mL))</t>
+          <t>(relative cloning efficiency significantly decreased at ≥ 3.75 µg/mL)</t>
         </is>
       </c>
       <c r="L683" t="inlineStr"/>
@@ -58281,7 +58281,7 @@
       </c>
       <c r="D1056" t="inlineStr">
         <is>
-          <t>lymphocytes: human peripheral blood lymphocytes (male)</t>
+          <t>lymphocytes: human peripheral blood lymphocytes</t>
         </is>
       </c>
       <c r="E1056" t="inlineStr">
@@ -58323,7 +58323,7 @@
       </c>
       <c r="D1057" t="inlineStr">
         <is>
-          <t>lymphocytes: human peripheral blood lymphocytes</t>
+          <t>lymphocytes: human peripheral blood lymphocytes (male)</t>
         </is>
       </c>
       <c r="E1057" t="inlineStr">
